--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.1491793739397</v>
+        <v>29.069596</v>
       </c>
       <c r="H2">
-        <v>27.1491793739397</v>
+        <v>87.20878800000001</v>
       </c>
       <c r="I2">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980618</v>
       </c>
       <c r="J2">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>54.40258291246044</v>
+        <v>60.6282761575</v>
       </c>
       <c r="R2">
-        <v>54.40258291246044</v>
+        <v>545.6544854175</v>
       </c>
       <c r="S2">
-        <v>0.00335762859444874</v>
+        <v>0.003521398395660388</v>
       </c>
       <c r="T2">
-        <v>0.00335762859444874</v>
+        <v>0.003521398395660388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.1491793739397</v>
+        <v>29.069596</v>
       </c>
       <c r="H3">
-        <v>27.1491793739397</v>
+        <v>87.20878800000001</v>
       </c>
       <c r="I3">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980618</v>
       </c>
       <c r="J3">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>266.3659661107272</v>
+        <v>288.7702543028453</v>
       </c>
       <c r="R3">
-        <v>266.3659661107272</v>
+        <v>2598.932288725608</v>
       </c>
       <c r="S3">
-        <v>0.01643962357155834</v>
+        <v>0.01677229132451079</v>
       </c>
       <c r="T3">
-        <v>0.01643962357155834</v>
+        <v>0.01677229132451079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.1491793739397</v>
+        <v>29.069596</v>
       </c>
       <c r="H4">
-        <v>27.1491793739397</v>
+        <v>87.20878800000001</v>
       </c>
       <c r="I4">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980618</v>
       </c>
       <c r="J4">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>808.8495287889657</v>
+        <v>872.2629080375159</v>
       </c>
       <c r="R4">
-        <v>808.8495287889657</v>
+        <v>7850.366172337644</v>
       </c>
       <c r="S4">
-        <v>0.04992072363252052</v>
+        <v>0.05066258517689035</v>
       </c>
       <c r="T4">
-        <v>0.04992072363252052</v>
+        <v>0.05066258517689033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.1491793739397</v>
+        <v>29.069596</v>
       </c>
       <c r="H5">
-        <v>27.1491793739397</v>
+        <v>87.20878800000001</v>
       </c>
       <c r="I5">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980618</v>
       </c>
       <c r="J5">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>569.8370423054647</v>
+        <v>622.0391512077081</v>
       </c>
       <c r="R5">
-        <v>569.8370423054647</v>
+        <v>5598.352360869372</v>
       </c>
       <c r="S5">
-        <v>0.03516930713564888</v>
+        <v>0.03612914316432869</v>
       </c>
       <c r="T5">
-        <v>0.03516930713564888</v>
+        <v>0.03612914316432867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.1491793739397</v>
+        <v>29.069596</v>
       </c>
       <c r="H6">
-        <v>27.1491793739397</v>
+        <v>87.20878800000001</v>
       </c>
       <c r="I6">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980618</v>
       </c>
       <c r="J6">
-        <v>0.1290845521334801</v>
+        <v>0.1336020129980617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N6">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q6">
-        <v>392.0606186302652</v>
+        <v>456.5389257172067</v>
       </c>
       <c r="R6">
-        <v>392.0606186302652</v>
+        <v>4108.850331454861</v>
       </c>
       <c r="S6">
-        <v>0.02419726919930363</v>
+        <v>0.02651659493667155</v>
       </c>
       <c r="T6">
-        <v>0.02419726919930363</v>
+        <v>0.02651659493667154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.37988360208</v>
+        <v>131.281446</v>
       </c>
       <c r="H7">
-        <v>130.37988360208</v>
+        <v>393.844338</v>
       </c>
       <c r="I7">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="J7">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N7">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O7">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P7">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q7">
-        <v>261.2602882055294</v>
+        <v>273.80386581375</v>
       </c>
       <c r="R7">
-        <v>261.2602882055294</v>
+        <v>2464.23479232375</v>
       </c>
       <c r="S7">
-        <v>0.0161245104057713</v>
+        <v>0.01590301679199036</v>
       </c>
       <c r="T7">
-        <v>0.0161245104057713</v>
+        <v>0.01590301679199036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.37988360208</v>
+        <v>131.281446</v>
       </c>
       <c r="H8">
-        <v>130.37988360208</v>
+        <v>393.844338</v>
       </c>
       <c r="I8">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="J8">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N8">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P8">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q8">
-        <v>1279.182813547878</v>
+        <v>1304.117764370212</v>
       </c>
       <c r="R8">
-        <v>1279.182813547878</v>
+        <v>11737.05987933191</v>
       </c>
       <c r="S8">
-        <v>0.07894883960209925</v>
+        <v>0.07574548534541146</v>
       </c>
       <c r="T8">
-        <v>0.07894883960209925</v>
+        <v>0.07574548534541148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>130.37988360208</v>
+        <v>131.281446</v>
       </c>
       <c r="H9">
-        <v>130.37988360208</v>
+        <v>393.844338</v>
       </c>
       <c r="I9">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="J9">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N9">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q9">
-        <v>3884.379191082686</v>
+        <v>3939.233825586365</v>
       </c>
       <c r="R9">
-        <v>3884.379191082686</v>
+        <v>35453.10443027729</v>
       </c>
       <c r="S9">
-        <v>0.2397368276548072</v>
+        <v>0.228797725297604</v>
       </c>
       <c r="T9">
-        <v>0.2397368276548072</v>
+        <v>0.228797725297604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>130.37988360208</v>
+        <v>131.281446</v>
       </c>
       <c r="H10">
-        <v>130.37988360208</v>
+        <v>393.844338</v>
       </c>
       <c r="I10">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="J10">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N10">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q10">
-        <v>2736.557382624078</v>
+        <v>2809.196221342758</v>
       </c>
       <c r="R10">
-        <v>2736.557382624078</v>
+        <v>25282.76599208482</v>
       </c>
       <c r="S10">
-        <v>0.1688953506680635</v>
+        <v>0.1631631260838329</v>
       </c>
       <c r="T10">
-        <v>0.1688953506680635</v>
+        <v>0.1631631260838329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>130.37988360208</v>
+        <v>131.281446</v>
       </c>
       <c r="H11">
-        <v>130.37988360208</v>
+        <v>393.844338</v>
       </c>
       <c r="I11">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="J11">
-        <v>0.619909303709739</v>
+        <v>0.6033611700312704</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N11">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q11">
-        <v>1882.812630095189</v>
+        <v>2061.77926667579</v>
       </c>
       <c r="R11">
-        <v>1882.812630095189</v>
+        <v>18556.01340008211</v>
       </c>
       <c r="S11">
-        <v>0.1162037753789976</v>
+        <v>0.1197518165124317</v>
       </c>
       <c r="T11">
-        <v>0.1162037753789976</v>
+        <v>0.1197518165124317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.2173671175099</v>
+        <v>16.845377</v>
       </c>
       <c r="H12">
-        <v>16.2173671175099</v>
+        <v>50.536131</v>
       </c>
       <c r="I12">
-        <v>0.07710772919926424</v>
+        <v>0.0774202805195934</v>
       </c>
       <c r="J12">
-        <v>0.07710772919926424</v>
+        <v>0.07742028051959339</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N12">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O12">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P12">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q12">
-        <v>32.4969917904415</v>
+        <v>35.13313940562499</v>
       </c>
       <c r="R12">
-        <v>32.4969917904415</v>
+        <v>316.198254650625</v>
       </c>
       <c r="S12">
-        <v>0.002005655302152225</v>
+        <v>0.00204059538846341</v>
       </c>
       <c r="T12">
-        <v>0.002005655302152225</v>
+        <v>0.00204059538846341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.2173671175099</v>
+        <v>16.845377</v>
       </c>
       <c r="H13">
-        <v>16.2173671175099</v>
+        <v>50.536131</v>
       </c>
       <c r="I13">
-        <v>0.07710772919926424</v>
+        <v>0.0774202805195934</v>
       </c>
       <c r="J13">
-        <v>0.07710772919926424</v>
+        <v>0.07742028051959339</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N13">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P13">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q13">
-        <v>159.1117948918325</v>
+        <v>167.3378536157607</v>
       </c>
       <c r="R13">
-        <v>159.1117948918325</v>
+        <v>1506.040682541846</v>
       </c>
       <c r="S13">
-        <v>0.009820090952345518</v>
+        <v>0.009719280946154657</v>
       </c>
       <c r="T13">
-        <v>0.009820090952345518</v>
+        <v>0.009719280946154657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.2173671175099</v>
+        <v>16.845377</v>
       </c>
       <c r="H14">
-        <v>16.2173671175099</v>
+        <v>50.536131</v>
       </c>
       <c r="I14">
-        <v>0.07710772919926424</v>
+        <v>0.0774202805195934</v>
       </c>
       <c r="J14">
-        <v>0.07710772919926424</v>
+        <v>0.07742028051959339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N14">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q14">
-        <v>483.1604510222087</v>
+        <v>505.4627360149169</v>
       </c>
       <c r="R14">
-        <v>483.1604510222087</v>
+        <v>4549.164624134252</v>
       </c>
       <c r="S14">
-        <v>0.02981978537065655</v>
+        <v>0.02935817708300209</v>
       </c>
       <c r="T14">
-        <v>0.02981978537065655</v>
+        <v>0.02935817708300209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.2173671175099</v>
+        <v>16.845377</v>
       </c>
       <c r="H15">
-        <v>16.2173671175099</v>
+        <v>50.536131</v>
       </c>
       <c r="I15">
-        <v>0.07710772919926424</v>
+        <v>0.0774202805195934</v>
       </c>
       <c r="J15">
-        <v>0.07710772919926424</v>
+        <v>0.07742028051959339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N15">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q15">
-        <v>340.3880605354266</v>
+        <v>360.461975833921</v>
       </c>
       <c r="R15">
-        <v>340.3880605354266</v>
+        <v>3244.157782505289</v>
       </c>
       <c r="S15">
-        <v>0.02100813277747749</v>
+        <v>0.02093627435655073</v>
       </c>
       <c r="T15">
-        <v>0.02100813277747749</v>
+        <v>0.02093627435655072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.2173671175099</v>
+        <v>16.845377</v>
       </c>
       <c r="H16">
-        <v>16.2173671175099</v>
+        <v>50.536131</v>
       </c>
       <c r="I16">
-        <v>0.07710772919926424</v>
+        <v>0.0774202805195934</v>
       </c>
       <c r="J16">
-        <v>0.07710772919926424</v>
+        <v>0.07742028051959339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N16">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q16">
-        <v>234.1945919274538</v>
+        <v>264.5571792219383</v>
       </c>
       <c r="R16">
-        <v>234.1945919274538</v>
+        <v>2381.014612997445</v>
       </c>
       <c r="S16">
-        <v>0.01445406479663245</v>
+        <v>0.01536595274542251</v>
       </c>
       <c r="T16">
-        <v>0.01445406479663245</v>
+        <v>0.01536595274542251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.5082162521845</v>
+        <v>35.71501900000001</v>
       </c>
       <c r="H17">
-        <v>32.5082162521845</v>
+        <v>107.145057</v>
       </c>
       <c r="I17">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="J17">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N17">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O17">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P17">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q17">
-        <v>65.14122970852156</v>
+        <v>74.488136501875</v>
       </c>
       <c r="R17">
-        <v>65.14122970852156</v>
+        <v>670.3932285168751</v>
       </c>
       <c r="S17">
-        <v>0.004020398367828042</v>
+        <v>0.004326403800299815</v>
       </c>
       <c r="T17">
-        <v>0.004020398367828042</v>
+        <v>0.004326403800299814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>32.5082162521845</v>
+        <v>35.71501900000001</v>
       </c>
       <c r="H18">
-        <v>32.5082162521845</v>
+        <v>107.145057</v>
       </c>
       <c r="I18">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="J18">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N18">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P18">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q18">
-        <v>318.9445363811386</v>
+        <v>354.7842604713513</v>
       </c>
       <c r="R18">
-        <v>318.9445363811386</v>
+        <v>3193.058344242162</v>
       </c>
       <c r="S18">
-        <v>0.01968467741907944</v>
+        <v>0.02060650252340755</v>
       </c>
       <c r="T18">
-        <v>0.01968467741907944</v>
+        <v>0.02060650252340756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>32.5082162521845</v>
+        <v>35.71501900000001</v>
       </c>
       <c r="H19">
-        <v>32.5082162521845</v>
+        <v>107.145057</v>
       </c>
       <c r="I19">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="J19">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N19">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q19">
-        <v>968.5101356171708</v>
+        <v>1071.665610129399</v>
       </c>
       <c r="R19">
-        <v>968.5101356171708</v>
+        <v>9644.99049116459</v>
       </c>
       <c r="S19">
-        <v>0.05977468626065584</v>
+        <v>0.06224424970273948</v>
       </c>
       <c r="T19">
-        <v>0.05977468626065584</v>
+        <v>0.06224424970273947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.5082162521845</v>
+        <v>35.71501900000001</v>
       </c>
       <c r="H20">
-        <v>32.5082162521845</v>
+        <v>107.145057</v>
       </c>
       <c r="I20">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="J20">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N20">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q20">
-        <v>682.3184430227266</v>
+        <v>764.239726762187</v>
       </c>
       <c r="R20">
-        <v>682.3184430227266</v>
+        <v>6878.157540859683</v>
       </c>
       <c r="S20">
-        <v>0.0421114548641793</v>
+        <v>0.04438840617419379</v>
       </c>
       <c r="T20">
-        <v>0.0421114548641793</v>
+        <v>0.04438840617419378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.5082162521845</v>
+        <v>35.71501900000001</v>
       </c>
       <c r="H21">
-        <v>32.5082162521845</v>
+        <v>107.145057</v>
       </c>
       <c r="I21">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="J21">
-        <v>0.1545648388768451</v>
+        <v>0.1641439541390263</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N21">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q21">
-        <v>469.4503358223753</v>
+        <v>560.9055043706016</v>
       </c>
       <c r="R21">
-        <v>469.4503358223753</v>
+        <v>5048.149539335415</v>
       </c>
       <c r="S21">
-        <v>0.02897362196510245</v>
+        <v>0.03257839193838566</v>
       </c>
       <c r="T21">
-        <v>0.02897362196510245</v>
+        <v>0.03257839193838565</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.06625515043121</v>
+        <v>4.67208</v>
       </c>
       <c r="H22">
-        <v>4.06625515043121</v>
+        <v>14.01624</v>
       </c>
       <c r="I22">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="J22">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N22">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O22">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P22">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q22">
-        <v>8.148120424475726</v>
+        <v>9.744206849999999</v>
       </c>
       <c r="R22">
-        <v>8.148120424475726</v>
+        <v>87.69786164999999</v>
       </c>
       <c r="S22">
-        <v>0.000502887191445561</v>
+        <v>0.0005659609103751213</v>
       </c>
       <c r="T22">
-        <v>0.000502887191445561</v>
+        <v>0.0005659609103751213</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.06625515043121</v>
+        <v>4.67208</v>
       </c>
       <c r="H23">
-        <v>4.06625515043121</v>
+        <v>14.01624</v>
       </c>
       <c r="I23">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="J23">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N23">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P23">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q23">
-        <v>39.89483316158722</v>
+        <v>46.41129961775999</v>
       </c>
       <c r="R23">
-        <v>39.89483316158722</v>
+        <v>417.7016965598399</v>
       </c>
       <c r="S23">
-        <v>0.00246223663331666</v>
+        <v>0.002695651045560467</v>
       </c>
       <c r="T23">
-        <v>0.00246223663331666</v>
+        <v>0.002695651045560468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.06625515043121</v>
+        <v>4.67208</v>
       </c>
       <c r="H24">
-        <v>4.06625515043121</v>
+        <v>14.01624</v>
       </c>
       <c r="I24">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="J24">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N24">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q24">
-        <v>121.1450451986429</v>
+        <v>140.19053059368</v>
       </c>
       <c r="R24">
-        <v>121.1450451986429</v>
+        <v>1261.71477534312</v>
       </c>
       <c r="S24">
-        <v>0.007476852128312893</v>
+        <v>0.0081425160140941</v>
       </c>
       <c r="T24">
-        <v>0.007476852128312893</v>
+        <v>0.008142516014094098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.06625515043121</v>
+        <v>4.67208</v>
       </c>
       <c r="H25">
-        <v>4.06625515043121</v>
+        <v>14.01624</v>
       </c>
       <c r="I25">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="J25">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N25">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q25">
-        <v>85.34706615866457</v>
+        <v>99.97444331784</v>
       </c>
       <c r="R25">
-        <v>85.34706615866457</v>
+        <v>899.7699898605599</v>
       </c>
       <c r="S25">
-        <v>0.005267465889399997</v>
+        <v>0.005806693949073002</v>
       </c>
       <c r="T25">
-        <v>0.005267465889399997</v>
+        <v>0.005806693949073</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.06625515043121</v>
+        <v>4.67208</v>
       </c>
       <c r="H26">
-        <v>4.06625515043121</v>
+        <v>14.01624</v>
       </c>
       <c r="I26">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="J26">
-        <v>0.01933357608067183</v>
+        <v>0.0214725823120481</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N26">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q26">
-        <v>58.7206886745476</v>
+        <v>73.37516434919999</v>
       </c>
       <c r="R26">
-        <v>58.7206886745476</v>
+        <v>660.3764791427999</v>
       </c>
       <c r="S26">
-        <v>0.003624134238196712</v>
+        <v>0.004261760392945412</v>
       </c>
       <c r="T26">
-        <v>0.003624134238196712</v>
+        <v>0.004261760392945411</v>
       </c>
     </row>
   </sheetData>
